--- a/output/StructureDefinition-careplan.xlsx
+++ b/output/StructureDefinition-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-11T17:34:16+02:00</t>
+    <t>2023-07-13T10:52:26+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-careplan.xlsx
+++ b/output/StructureDefinition-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-13T10:52:26+02:00</t>
+    <t>2023-07-13T11:08:06+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-careplan.xlsx
+++ b/output/StructureDefinition-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-13T11:08:06+02:00</t>
+    <t>2023-07-13T11:12:35+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-careplan.xlsx
+++ b/output/StructureDefinition-careplan.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2311" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2345" uniqueCount="455">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-13T11:12:35+02:00</t>
+    <t>2023-07-13T12:25:01+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -928,13 +928,23 @@
     <t>CarePlan.activity.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.extension:attention-point</t>
+  </si>
+  <si>
+    <t>attention-point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://example.org/fhir/fish/StructureDefinition/attention-point}
+</t>
+  </si>
+  <si>
+    <t>Attention Point</t>
+  </si>
+  <si>
+    <t>Attention Point on the observation</t>
   </si>
   <si>
     <t>CarePlan.activity.modifierExtension</t>
@@ -1064,6 +1074,12 @@
   </si>
   <si>
     <t>CarePlan.activity.detail.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>CarePlan.activity.detail.modifierExtension</t>
@@ -1716,7 +1732,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN63"/>
+  <dimension ref="A1:AN64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5547,7 +5563,7 @@
         <v>35</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>37</v>
@@ -5766,7 +5782,7 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5788,14 +5804,12 @@
         <v>89</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>290</v>
+        <v>90</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>37</v>
@@ -5832,19 +5846,17 @@
         <v>37</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>37</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="AC36" s="2"/>
       <c r="AD36" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>35</v>
@@ -5862,7 +5874,7 @@
         <v>37</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>288</v>
+        <v>37</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>37</v>
@@ -5873,46 +5885,44 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="D37" t="s" s="2">
-        <v>294</v>
+        <v>37</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>89</v>
+        <v>293</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="M37" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>117</v>
-      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>37</v>
       </c>
@@ -5960,7 +5970,7 @@
         <v>37</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>35</v>
@@ -5969,7 +5979,7 @@
         <v>36</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>95</v>
@@ -5978,7 +5988,7 @@
         <v>37</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>37</v>
@@ -5989,14 +5999,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>37</v>
+        <v>297</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6009,24 +6019,26 @@
         <v>37</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>178</v>
+        <v>89</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M38" t="s" s="2">
-        <v>300</v>
-      </c>
       <c r="N38" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>37</v>
       </c>
@@ -6050,13 +6062,13 @@
         <v>37</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>302</v>
+        <v>37</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>303</v>
+        <v>37</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>37</v>
@@ -6074,7 +6086,7 @@
         <v>37</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>35</v>
@@ -6086,13 +6098,13 @@
         <v>37</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>37</v>
@@ -6103,10 +6115,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6129,20 +6141,18 @@
         <v>37</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>262</v>
+        <v>178</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>37</v>
       </c>
@@ -6166,13 +6176,13 @@
         <v>37</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>37</v>
+        <v>183</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>37</v>
+        <v>306</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>37</v>
@@ -6190,7 +6200,7 @@
         <v>37</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>35</v>
@@ -6205,10 +6215,10 @@
         <v>56</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>309</v>
+        <v>37</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>310</v>
+        <v>37</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>37</v>
@@ -6219,10 +6229,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6245,19 +6255,19 @@
         <v>37</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>312</v>
+        <v>262</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>37</v>
@@ -6306,7 +6316,7 @@
         <v>37</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>35</v>
@@ -6321,24 +6331,24 @@
         <v>56</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>37</v>
+        <v>312</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>318</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6349,7 +6359,7 @@
         <v>35</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>37</v>
@@ -6361,19 +6371,19 @@
         <v>37</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>37</v>
@@ -6422,39 +6432,39 @@
         <v>37</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>325</v>
+        <v>37</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>56</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>326</v>
+        <v>37</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>37</v>
+        <v>321</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6477,17 +6487,19 @@
         <v>37</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>277</v>
+        <v>323</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="O42" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>37</v>
@@ -6536,7 +6548,7 @@
         <v>37</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>35</v>
@@ -6545,16 +6557,16 @@
         <v>44</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>56</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>37</v>
+        <v>329</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>331</v>
+        <v>283</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>37</v>
@@ -6565,10 +6577,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6591,16 +6603,18 @@
         <v>37</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>188</v>
+        <v>277</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>285</v>
+        <v>331</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>286</v>
+        <v>332</v>
       </c>
       <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>37</v>
       </c>
@@ -6648,7 +6662,7 @@
         <v>37</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>287</v>
+        <v>330</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>35</v>
@@ -6657,16 +6671,16 @@
         <v>44</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>37</v>
+        <v>328</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>288</v>
+        <v>334</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>37</v>
@@ -6677,21 +6691,21 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>37</v>
@@ -6703,17 +6717,15 @@
         <v>37</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>89</v>
+        <v>188</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>37</v>
@@ -6762,19 +6774,19 @@
         <v>37</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>37</v>
@@ -6791,14 +6803,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>294</v>
+        <v>113</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6811,26 +6823,24 @@
         <v>37</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>89</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>295</v>
+        <v>337</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>296</v>
+        <v>338</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="O45" t="s" s="2">
-        <v>117</v>
-      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>37</v>
       </c>
@@ -6878,7 +6888,7 @@
         <v>37</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>35</v>
@@ -6896,7 +6906,7 @@
         <v>37</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>87</v>
+        <v>288</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>37</v>
@@ -6907,43 +6917,45 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>37</v>
+        <v>297</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="O46" t="s" s="2">
-        <v>338</v>
+        <v>117</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>37</v>
@@ -6968,13 +6980,13 @@
         <v>37</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>163</v>
+        <v>37</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>339</v>
+        <v>37</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>340</v>
+        <v>37</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>37</v>
@@ -6992,25 +7004,25 @@
         <v>37</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>335</v>
+        <v>300</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>341</v>
+        <v>87</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>37</v>
@@ -7021,10 +7033,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7035,7 +7047,7 @@
         <v>35</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>37</v>
@@ -7047,17 +7059,17 @@
         <v>37</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>343</v>
+        <v>64</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>131</v>
+        <v>341</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>37</v>
@@ -7082,13 +7094,13 @@
         <v>37</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>37</v>
+        <v>344</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>37</v>
@@ -7106,13 +7118,13 @@
         <v>37</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>37</v>
@@ -7121,10 +7133,10 @@
         <v>56</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>133</v>
+        <v>37</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>134</v>
+        <v>346</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>37</v>
@@ -7135,10 +7147,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7161,19 +7173,17 @@
         <v>37</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>58</v>
+        <v>348</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>37</v>
@@ -7222,7 +7232,7 @@
         <v>37</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>35</v>
@@ -7237,7 +7247,7 @@
         <v>56</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>134</v>
@@ -7251,10 +7261,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7265,7 +7275,7 @@
         <v>35</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>37</v>
@@ -7277,19 +7287,19 @@
         <v>37</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>178</v>
+        <v>58</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>349</v>
+        <v>136</v>
       </c>
       <c r="M49" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O49" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>37</v>
@@ -7314,13 +7324,13 @@
         <v>37</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>353</v>
+        <v>37</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>354</v>
+        <v>37</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>37</v>
@@ -7338,13 +7348,13 @@
         <v>37</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>37</v>
@@ -7353,24 +7363,24 @@
         <v>56</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>355</v>
+        <v>139</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>356</v>
+        <v>134</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>357</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7381,7 +7391,7 @@
         <v>35</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>37</v>
@@ -7396,15 +7406,17 @@
         <v>178</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>37</v>
       </c>
@@ -7431,10 +7443,10 @@
         <v>183</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>37</v>
@@ -7452,13 +7464,13 @@
         <v>37</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>37</v>
@@ -7467,24 +7479,24 @@
         <v>56</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>37</v>
+        <v>361</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>37</v>
+        <v>362</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7507,16 +7519,16 @@
         <v>37</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="N51" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7542,13 +7554,13 @@
         <v>37</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>37</v>
+        <v>183</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>37</v>
+        <v>367</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>37</v>
+        <v>368</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>37</v>
@@ -7566,7 +7578,7 @@
         <v>37</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>35</v>
@@ -7581,7 +7593,7 @@
         <v>56</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>257</v>
+        <v>369</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>37</v>
@@ -7621,18 +7633,18 @@
         <v>37</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>269</v>
+        <v>371</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
         <v>373</v>
       </c>
+      <c r="N52" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>37</v>
       </c>
@@ -7695,10 +7707,10 @@
         <v>56</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>37</v>
+        <v>257</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>274</v>
+        <v>37</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>37</v>
@@ -7709,10 +7721,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7720,32 +7732,30 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>37</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>64</v>
+        <v>269</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N53" t="s" s="2">
         <v>377</v>
       </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>378</v>
       </c>
@@ -7772,13 +7782,13 @@
         <v>37</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>163</v>
+        <v>37</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>379</v>
+        <v>37</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>380</v>
+        <v>37</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>37</v>
@@ -7796,13 +7806,13 @@
         <v>37</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>37</v>
@@ -7811,24 +7821,24 @@
         <v>56</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>381</v>
+        <v>37</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>382</v>
+        <v>274</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>383</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7836,7 +7846,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>44</v>
@@ -7845,24 +7855,26 @@
         <v>37</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>37</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>178</v>
+        <v>64</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>37</v>
       </c>
@@ -7886,13 +7898,13 @@
         <v>37</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>37</v>
+        <v>384</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>37</v>
+        <v>385</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>37</v>
@@ -7910,10 +7922,10 @@
         <v>37</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>44</v>
@@ -7925,16 +7937,16 @@
         <v>56</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN54" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>37</v>
       </c>
     </row>
     <row r="55">
@@ -7959,32 +7971,28 @@
         <v>37</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>37</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="N55" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>394</v>
-      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="Q55" t="s" s="2">
-        <v>395</v>
-      </c>
+      <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
         <v>37</v>
       </c>
@@ -8043,10 +8051,10 @@
         <v>56</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>397</v>
+        <v>37</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>37</v>
@@ -8057,10 +8065,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8077,28 +8085,32 @@
         <v>37</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>37</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="O56" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="P56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q56" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="M56" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="P56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
         <v>37</v>
       </c>
@@ -8142,7 +8154,7 @@
         <v>37</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>35</v>
@@ -8157,24 +8169,24 @@
         <v>56</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>221</v>
+        <v>401</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>222</v>
+        <v>402</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>403</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8197,19 +8209,17 @@
         <v>37</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>37</v>
@@ -8258,7 +8268,7 @@
         <v>37</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>35</v>
@@ -8273,24 +8283,24 @@
         <v>56</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>37</v>
+        <v>221</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>410</v>
+        <v>222</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8301,7 +8311,7 @@
         <v>35</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>37</v>
@@ -8313,19 +8323,19 @@
         <v>37</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N58" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>37</v>
@@ -8374,13 +8384,13 @@
         <v>37</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>37</v>
@@ -8389,24 +8399,24 @@
         <v>56</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>417</v>
+        <v>37</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8417,7 +8427,7 @@
         <v>35</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>37</v>
@@ -8429,16 +8439,20 @@
         <v>37</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="N59" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="L59" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>37</v>
       </c>
@@ -8462,13 +8476,13 @@
         <v>37</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>424</v>
+        <v>37</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>425</v>
+        <v>37</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>37</v>
@@ -8486,13 +8500,13 @@
         <v>37</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>37</v>
@@ -8501,28 +8515,28 @@
         <v>56</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>37</v>
+        <v>422</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>429</v>
+        <v>37</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8541,18 +8555,16 @@
         <v>37</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="N60" s="2"/>
-      <c r="O60" t="s" s="2">
-        <v>433</v>
-      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>37</v>
       </c>
@@ -8576,13 +8588,13 @@
         <v>37</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>37</v>
+        <v>183</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>37</v>
+        <v>429</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>37</v>
+        <v>430</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>37</v>
@@ -8600,7 +8612,7 @@
         <v>37</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>35</v>
@@ -8618,25 +8630,25 @@
         <v>37</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>37</v>
+        <v>434</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8655,16 +8667,18 @@
         <v>37</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>37</v>
       </c>
@@ -8712,7 +8726,7 @@
         <v>37</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>35</v>
@@ -8767,7 +8781,7 @@
         <v>37</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>188</v>
+        <v>435</v>
       </c>
       <c r="L62" t="s" s="2">
         <v>442</v>
@@ -8848,15 +8862,15 @@
         <v>37</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>318</v>
+        <v>445</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8867,7 +8881,7 @@
         <v>35</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>37</v>
@@ -8879,18 +8893,16 @@
         <v>37</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>312</v>
+        <v>188</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N63" s="2"/>
-      <c r="O63" t="s" s="2">
-        <v>448</v>
-      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>37</v>
       </c>
@@ -8938,13 +8950,13 @@
         <v>37</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>37</v>
@@ -8953,16 +8965,130 @@
         <v>56</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="AL63" t="s" s="2">
-        <v>317</v>
-      </c>
       <c r="AM63" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="P64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>321</v>
       </c>
     </row>
   </sheetData>

--- a/output/StructureDefinition-careplan.xlsx
+++ b/output/StructureDefinition-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-13T12:25:01+02:00</t>
+    <t>2023-07-17T09:25:48+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-careplan.xlsx
+++ b/output/StructureDefinition-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-17T09:30:42+02:00</t>
+    <t>2023-07-17T09:56:27+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-careplan.xlsx
+++ b/output/StructureDefinition-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-17T09:56:27+02:00</t>
+    <t>2023-07-17T16:21:50+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-careplan.xlsx
+++ b/output/StructureDefinition-careplan.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2345" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2381" uniqueCount="458">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-17T16:21:50+02:00</t>
+    <t>2023-07-17T17:08:31+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -942,6 +942,19 @@
   </si>
   <si>
     <t>Attention Point on the observation</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.extension:outcomeReference</t>
+  </si>
+  <si>
+    <t>outcomeReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://example.org/fhir/fish/StructureDefinition/outcome-reference}
+</t>
+  </si>
+  <si>
+    <t>Outcome Reference</t>
   </si>
   <si>
     <t>CarePlan.activity.modifierExtension</t>
@@ -1729,7 +1742,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN64"/>
+  <dimension ref="A1:AN65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1738,9 +1751,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.75390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="40.75390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.28125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="17.5390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="6" max="6" width="2.203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="2.203125" customWidth="true" bestFit="true"/>
@@ -5560,7 +5573,7 @@
         <v>34</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>36</v>
@@ -5999,43 +6012,41 @@
         <v>295</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="C38" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="D38" t="s" s="2">
-        <v>296</v>
+        <v>36</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>34</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>36</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>88</v>
+        <v>297</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>36</v>
       </c>
@@ -6083,7 +6094,7 @@
         <v>36</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>34</v>
@@ -6092,7 +6103,7 @@
         <v>35</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>94</v>
@@ -6101,7 +6112,7 @@
         <v>36</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>36</v>
@@ -6112,14 +6123,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6132,13 +6143,13 @@
         <v>36</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>177</v>
+        <v>88</v>
       </c>
       <c r="L39" t="s" s="2">
         <v>301</v>
@@ -6147,9 +6158,11 @@
         <v>302</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>36</v>
       </c>
@@ -6173,13 +6186,13 @@
         <v>36</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>182</v>
+        <v>36</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>304</v>
+        <v>36</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>305</v>
+        <v>36</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>36</v>
@@ -6197,7 +6210,7 @@
         <v>36</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>34</v>
@@ -6209,13 +6222,13 @@
         <v>36</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>36</v>
@@ -6226,10 +6239,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6252,20 +6265,18 @@
         <v>36</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>261</v>
+        <v>177</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="N40" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="M40" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>310</v>
-      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>36</v>
       </c>
@@ -6289,13 +6300,13 @@
         <v>36</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>36</v>
+        <v>182</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>36</v>
+        <v>308</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>36</v>
+        <v>309</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>36</v>
@@ -6313,7 +6324,7 @@
         <v>36</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>34</v>
@@ -6328,10 +6339,10 @@
         <v>55</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>311</v>
+        <v>36</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>312</v>
+        <v>36</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>36</v>
@@ -6342,10 +6353,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6368,19 +6379,19 @@
         <v>36</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="O41" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>36</v>
@@ -6429,7 +6440,7 @@
         <v>36</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>34</v>
@@ -6444,24 +6455,24 @@
         <v>55</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>36</v>
+        <v>315</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>320</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6472,7 +6483,7 @@
         <v>34</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>36</v>
@@ -6484,19 +6495,19 @@
         <v>36</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="O42" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>36</v>
@@ -6545,39 +6556,39 @@
         <v>36</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>327</v>
+        <v>36</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>55</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>328</v>
+        <v>36</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>282</v>
+        <v>323</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>36</v>
+        <v>324</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6600,17 +6611,19 @@
         <v>36</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>276</v>
+        <v>326</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="O43" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>36</v>
@@ -6659,7 +6672,7 @@
         <v>36</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>34</v>
@@ -6668,16 +6681,16 @@
         <v>43</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>55</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>36</v>
+        <v>332</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>333</v>
+        <v>282</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>36</v>
@@ -6688,10 +6701,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6714,16 +6727,18 @@
         <v>36</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>187</v>
+        <v>276</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>284</v>
+        <v>334</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>285</v>
+        <v>335</v>
       </c>
       <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>36</v>
       </c>
@@ -6771,7 +6786,7 @@
         <v>36</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>286</v>
+        <v>333</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>34</v>
@@ -6780,16 +6795,16 @@
         <v>43</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>36</v>
+        <v>331</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>287</v>
+        <v>337</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>36</v>
@@ -6800,21 +6815,21 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>34</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>36</v>
@@ -6826,17 +6841,15 @@
         <v>36</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>88</v>
+        <v>187</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>336</v>
+        <v>284</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>36</v>
@@ -6885,19 +6898,19 @@
         <v>36</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>36</v>
@@ -6914,14 +6927,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>296</v>
+        <v>112</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6934,26 +6947,24 @@
         <v>36</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>88</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>297</v>
+        <v>340</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>298</v>
+        <v>341</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="O46" t="s" s="2">
-        <v>116</v>
-      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>36</v>
       </c>
@@ -7001,7 +7012,7 @@
         <v>36</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>34</v>
@@ -7019,7 +7030,7 @@
         <v>36</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>86</v>
+        <v>287</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>36</v>
@@ -7030,43 +7041,45 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>34</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>36</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>340</v>
+        <v>301</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="O47" t="s" s="2">
-        <v>342</v>
+        <v>116</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>36</v>
@@ -7091,13 +7104,13 @@
         <v>36</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>162</v>
+        <v>36</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>343</v>
+        <v>36</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>344</v>
+        <v>36</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>36</v>
@@ -7115,25 +7128,25 @@
         <v>36</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>339</v>
+        <v>303</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>345</v>
+        <v>86</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>36</v>
@@ -7144,10 +7157,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7158,7 +7171,7 @@
         <v>34</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>36</v>
@@ -7170,17 +7183,17 @@
         <v>36</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>347</v>
+        <v>63</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>130</v>
+        <v>344</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>36</v>
@@ -7205,13 +7218,13 @@
         <v>36</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>36</v>
+        <v>162</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>36</v>
+        <v>348</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>36</v>
@@ -7229,13 +7242,13 @@
         <v>36</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>36</v>
@@ -7244,10 +7257,10 @@
         <v>55</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>133</v>
+        <v>349</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>36</v>
@@ -7284,19 +7297,17 @@
         <v>36</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>57</v>
+        <v>351</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>36</v>
@@ -7360,7 +7371,7 @@
         <v>55</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>133</v>
@@ -7374,10 +7385,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7388,7 +7399,7 @@
         <v>34</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>36</v>
@@ -7400,19 +7411,19 @@
         <v>36</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>177</v>
+        <v>57</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O50" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>36</v>
@@ -7437,13 +7448,13 @@
         <v>36</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>182</v>
+        <v>36</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>357</v>
+        <v>36</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>358</v>
+        <v>36</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>36</v>
@@ -7461,13 +7472,13 @@
         <v>36</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>36</v>
@@ -7476,24 +7487,24 @@
         <v>55</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>359</v>
+        <v>138</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>360</v>
+        <v>133</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>361</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7504,7 +7515,7 @@
         <v>34</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>36</v>
@@ -7519,15 +7530,17 @@
         <v>177</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>36</v>
       </c>
@@ -7554,10 +7567,10 @@
         <v>182</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>36</v>
@@ -7575,13 +7588,13 @@
         <v>36</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>36</v>
@@ -7590,24 +7603,24 @@
         <v>55</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>36</v>
+        <v>364</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>36</v>
+        <v>365</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7630,16 +7643,16 @@
         <v>36</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>370</v>
+        <v>177</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7665,13 +7678,13 @@
         <v>36</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>36</v>
+        <v>182</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>36</v>
+        <v>370</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>36</v>
+        <v>371</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>36</v>
@@ -7689,7 +7702,7 @@
         <v>36</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>34</v>
@@ -7704,7 +7717,7 @@
         <v>55</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>256</v>
+        <v>372</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>36</v>
@@ -7718,10 +7731,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7744,7 +7757,7 @@
         <v>36</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>268</v>
+        <v>374</v>
       </c>
       <c r="L53" t="s" s="2">
         <v>375</v>
@@ -7752,10 +7765,10 @@
       <c r="M53" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>377</v>
       </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>36</v>
       </c>
@@ -7803,7 +7816,7 @@
         <v>36</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>34</v>
@@ -7818,10 +7831,10 @@
         <v>55</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>36</v>
+        <v>256</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>273</v>
+        <v>36</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>36</v>
@@ -7843,22 +7856,22 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>36</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>36</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>63</v>
+        <v>268</v>
       </c>
       <c r="L54" t="s" s="2">
         <v>379</v>
@@ -7866,11 +7879,9 @@
       <c r="M54" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="N54" t="s" s="2">
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>36</v>
@@ -7895,13 +7906,13 @@
         <v>36</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>162</v>
+        <v>36</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>383</v>
+        <v>36</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>384</v>
+        <v>36</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>36</v>
@@ -7922,10 +7933,10 @@
         <v>378</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>36</v>
@@ -7934,24 +7945,24 @@
         <v>55</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>385</v>
+        <v>36</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>386</v>
+        <v>273</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>387</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7959,7 +7970,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>43</v>
@@ -7968,24 +7979,26 @@
         <v>36</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>36</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>177</v>
+        <v>63</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="O55" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>386</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>36</v>
       </c>
@@ -8009,13 +8022,13 @@
         <v>36</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>36</v>
+        <v>162</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>36</v>
+        <v>387</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>36</v>
+        <v>388</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>36</v>
@@ -8033,10 +8046,10 @@
         <v>36</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>43</v>
@@ -8048,24 +8061,24 @@
         <v>55</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>36</v>
+        <v>390</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>36</v>
+        <v>391</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8082,32 +8095,28 @@
         <v>36</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>36</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M56" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>398</v>
-      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="Q56" t="s" s="2">
-        <v>399</v>
-      </c>
+      <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
         <v>36</v>
       </c>
@@ -8151,7 +8160,7 @@
         <v>36</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>34</v>
@@ -8166,10 +8175,10 @@
         <v>55</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>401</v>
+        <v>36</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>36</v>
@@ -8180,10 +8189,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8200,28 +8209,32 @@
         <v>36</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>36</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="P57" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q57" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L57" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="P57" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
         <v>36</v>
       </c>
@@ -8265,7 +8278,7 @@
         <v>36</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>34</v>
@@ -8280,24 +8293,24 @@
         <v>55</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>220</v>
+        <v>404</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>221</v>
+        <v>405</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>407</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8320,19 +8333,17 @@
         <v>36</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>36</v>
@@ -8381,7 +8392,7 @@
         <v>36</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>34</v>
@@ -8396,24 +8407,24 @@
         <v>55</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>414</v>
+        <v>221</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8424,7 +8435,7 @@
         <v>34</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>36</v>
@@ -8436,19 +8447,19 @@
         <v>36</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="O59" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>36</v>
@@ -8497,13 +8508,13 @@
         <v>36</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>36</v>
@@ -8512,24 +8523,24 @@
         <v>55</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>421</v>
+        <v>36</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8540,7 +8551,7 @@
         <v>34</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>36</v>
@@ -8552,16 +8563,20 @@
         <v>36</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>417</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>36</v>
       </c>
@@ -8585,13 +8600,13 @@
         <v>36</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>182</v>
+        <v>36</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>428</v>
+        <v>36</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>429</v>
+        <v>36</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>36</v>
@@ -8609,13 +8624,13 @@
         <v>36</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>36</v>
@@ -8624,28 +8639,28 @@
         <v>55</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>36</v>
+        <v>425</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>433</v>
+        <v>36</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8664,18 +8679,16 @@
         <v>36</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="N61" s="2"/>
-      <c r="O61" t="s" s="2">
-        <v>437</v>
-      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>36</v>
       </c>
@@ -8699,13 +8712,13 @@
         <v>36</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>36</v>
+        <v>182</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>36</v>
+        <v>432</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>36</v>
+        <v>433</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>36</v>
@@ -8723,7 +8736,7 @@
         <v>36</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>34</v>
@@ -8741,25 +8754,25 @@
         <v>36</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>36</v>
+        <v>437</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -8778,16 +8791,18 @@
         <v>36</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="M62" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>36</v>
       </c>
@@ -8835,7 +8850,7 @@
         <v>36</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>34</v>
@@ -8853,21 +8868,21 @@
         <v>36</v>
       </c>
       <c r="AL62" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>444</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8890,13 +8905,13 @@
         <v>36</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>187</v>
+        <v>438</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8947,7 +8962,7 @@
         <v>36</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>34</v>
@@ -8965,13 +8980,13 @@
         <v>36</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>320</v>
       </c>
     </row>
     <row r="64">
@@ -8990,7 +9005,7 @@
         <v>34</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>36</v>
@@ -9002,7 +9017,7 @@
         <v>36</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>314</v>
+        <v>187</v>
       </c>
       <c r="L64" t="s" s="2">
         <v>450</v>
@@ -9011,9 +9026,7 @@
         <v>451</v>
       </c>
       <c r="N64" s="2"/>
-      <c r="O64" t="s" s="2">
-        <v>452</v>
-      </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>36</v>
       </c>
@@ -9067,7 +9080,7 @@
         <v>34</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>36</v>
@@ -9076,16 +9089,130 @@
         <v>55</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="AL64" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>320</v>
+      <c r="B65" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="P65" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>324</v>
       </c>
     </row>
   </sheetData>

--- a/output/StructureDefinition-careplan.xlsx
+++ b/output/StructureDefinition-careplan.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2381" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2417" uniqueCount="462">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-17T17:08:31+02:00</t>
+    <t>2023-07-17T17:22:35+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -955,6 +955,19 @@
   </si>
   <si>
     <t>Outcome Reference</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.extension:Reference</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://example.org/fhir/fish/StructureDefinition/reference}
+</t>
+  </si>
+  <si>
+    <t>Type of observation made by the contributor</t>
   </si>
   <si>
     <t>CarePlan.activity.modifierExtension</t>
@@ -1742,7 +1755,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN65"/>
+  <dimension ref="A1:AN66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5796,7 +5809,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>35</v>
@@ -6126,43 +6139,41 @@
         <v>299</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="D39" t="s" s="2">
-        <v>300</v>
+        <v>36</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>36</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>88</v>
+        <v>301</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="N39" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>116</v>
-      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>36</v>
       </c>
@@ -6210,7 +6221,7 @@
         <v>36</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>34</v>
@@ -6219,7 +6230,7 @@
         <v>35</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>94</v>
@@ -6228,7 +6239,7 @@
         <v>36</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>36</v>
@@ -6239,14 +6250,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>36</v>
+        <v>304</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6259,13 +6270,13 @@
         <v>36</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>177</v>
+        <v>88</v>
       </c>
       <c r="L40" t="s" s="2">
         <v>305</v>
@@ -6274,9 +6285,11 @@
         <v>306</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>36</v>
       </c>
@@ -6300,13 +6313,13 @@
         <v>36</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>182</v>
+        <v>36</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>308</v>
+        <v>36</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>309</v>
+        <v>36</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>36</v>
@@ -6324,7 +6337,7 @@
         <v>36</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>34</v>
@@ -6336,13 +6349,13 @@
         <v>36</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>36</v>
@@ -6353,10 +6366,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6379,20 +6392,18 @@
         <v>36</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>261</v>
+        <v>177</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="N41" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M41" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>314</v>
-      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>36</v>
       </c>
@@ -6416,13 +6427,13 @@
         <v>36</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>36</v>
+        <v>182</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>36</v>
+        <v>312</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>36</v>
+        <v>313</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>36</v>
@@ -6440,7 +6451,7 @@
         <v>36</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>34</v>
@@ -6455,10 +6466,10 @@
         <v>55</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>315</v>
+        <v>36</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>316</v>
+        <v>36</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>36</v>
@@ -6469,10 +6480,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6495,19 +6506,19 @@
         <v>36</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="O42" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>36</v>
@@ -6556,7 +6567,7 @@
         <v>36</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>34</v>
@@ -6571,24 +6582,24 @@
         <v>55</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>36</v>
+        <v>319</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>324</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6599,7 +6610,7 @@
         <v>34</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>36</v>
@@ -6611,19 +6622,19 @@
         <v>36</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="O43" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>36</v>
@@ -6672,39 +6683,39 @@
         <v>36</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>331</v>
+        <v>36</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>55</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>332</v>
+        <v>36</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>282</v>
+        <v>327</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>36</v>
+        <v>328</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6727,17 +6738,19 @@
         <v>36</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="O44" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>36</v>
@@ -6786,7 +6799,7 @@
         <v>36</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>34</v>
@@ -6795,16 +6808,16 @@
         <v>43</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>55</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>36</v>
+        <v>336</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>337</v>
+        <v>282</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>36</v>
@@ -6815,10 +6828,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6841,16 +6854,18 @@
         <v>36</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>187</v>
+        <v>276</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>284</v>
+        <v>338</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>285</v>
+        <v>339</v>
       </c>
       <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>36</v>
       </c>
@@ -6898,7 +6913,7 @@
         <v>36</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>286</v>
+        <v>337</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>34</v>
@@ -6907,16 +6922,16 @@
         <v>43</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>36</v>
+        <v>335</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>287</v>
+        <v>341</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>36</v>
@@ -6927,21 +6942,21 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>34</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>36</v>
@@ -6953,17 +6968,15 @@
         <v>36</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>88</v>
+        <v>187</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>340</v>
+        <v>284</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>36</v>
@@ -7012,19 +7025,19 @@
         <v>36</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>36</v>
@@ -7041,14 +7054,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>300</v>
+        <v>112</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7061,26 +7074,24 @@
         <v>36</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>88</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>301</v>
+        <v>344</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>302</v>
+        <v>345</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="O47" t="s" s="2">
-        <v>116</v>
-      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>36</v>
       </c>
@@ -7128,7 +7139,7 @@
         <v>36</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>34</v>
@@ -7146,7 +7157,7 @@
         <v>36</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>86</v>
+        <v>287</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>36</v>
@@ -7157,43 +7168,45 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>36</v>
+        <v>304</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>34</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="O48" t="s" s="2">
-        <v>346</v>
+        <v>116</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>36</v>
@@ -7218,13 +7231,13 @@
         <v>36</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>162</v>
+        <v>36</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>348</v>
+        <v>36</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>36</v>
@@ -7242,25 +7255,25 @@
         <v>36</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>343</v>
+        <v>307</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>349</v>
+        <v>86</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>36</v>
@@ -7271,10 +7284,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7285,7 +7298,7 @@
         <v>34</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>36</v>
@@ -7297,17 +7310,17 @@
         <v>36</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>351</v>
+        <v>63</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>130</v>
+        <v>348</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>36</v>
@@ -7332,13 +7345,13 @@
         <v>36</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>36</v>
+        <v>162</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>36</v>
+        <v>351</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>36</v>
+        <v>352</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>36</v>
@@ -7356,13 +7369,13 @@
         <v>36</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>36</v>
@@ -7371,10 +7384,10 @@
         <v>55</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>133</v>
+        <v>353</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>36</v>
@@ -7411,19 +7424,17 @@
         <v>36</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>57</v>
+        <v>355</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>36</v>
@@ -7487,7 +7498,7 @@
         <v>55</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>133</v>
@@ -7501,10 +7512,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7515,7 +7526,7 @@
         <v>34</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>36</v>
@@ -7527,19 +7538,19 @@
         <v>36</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>177</v>
+        <v>57</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O51" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>36</v>
@@ -7564,13 +7575,13 @@
         <v>36</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>182</v>
+        <v>36</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>361</v>
+        <v>36</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>362</v>
+        <v>36</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>36</v>
@@ -7588,13 +7599,13 @@
         <v>36</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>36</v>
@@ -7603,24 +7614,24 @@
         <v>55</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>363</v>
+        <v>138</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>364</v>
+        <v>133</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>365</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7631,7 +7642,7 @@
         <v>34</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>36</v>
@@ -7646,15 +7657,17 @@
         <v>177</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="O52" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>36</v>
       </c>
@@ -7681,10 +7694,10 @@
         <v>182</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>36</v>
@@ -7702,13 +7715,13 @@
         <v>36</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>36</v>
@@ -7717,24 +7730,24 @@
         <v>55</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>36</v>
+        <v>368</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>36</v>
+        <v>369</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7757,16 +7770,16 @@
         <v>36</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>374</v>
+        <v>177</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7792,13 +7805,13 @@
         <v>36</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>36</v>
+        <v>182</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>36</v>
+        <v>374</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>36</v>
+        <v>375</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>36</v>
@@ -7816,7 +7829,7 @@
         <v>36</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>34</v>
@@ -7831,7 +7844,7 @@
         <v>55</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>256</v>
+        <v>376</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>36</v>
@@ -7845,10 +7858,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7871,7 +7884,7 @@
         <v>36</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>268</v>
+        <v>378</v>
       </c>
       <c r="L54" t="s" s="2">
         <v>379</v>
@@ -7879,10 +7892,10 @@
       <c r="M54" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>381</v>
       </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>36</v>
       </c>
@@ -7930,7 +7943,7 @@
         <v>36</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>34</v>
@@ -7945,10 +7958,10 @@
         <v>55</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>36</v>
+        <v>256</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>273</v>
+        <v>36</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>36</v>
@@ -7970,22 +7983,22 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>36</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>36</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>63</v>
+        <v>268</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>383</v>
@@ -7993,11 +8006,9 @@
       <c r="M55" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="N55" t="s" s="2">
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>36</v>
@@ -8022,13 +8033,13 @@
         <v>36</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>162</v>
+        <v>36</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>387</v>
+        <v>36</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>388</v>
+        <v>36</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>36</v>
@@ -8049,10 +8060,10 @@
         <v>382</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>36</v>
@@ -8061,24 +8072,24 @@
         <v>55</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>389</v>
+        <v>36</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>390</v>
+        <v>273</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>391</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8086,7 +8097,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>43</v>
@@ -8095,24 +8106,26 @@
         <v>36</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>36</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>177</v>
+        <v>63</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="O56" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>36</v>
       </c>
@@ -8136,13 +8149,13 @@
         <v>36</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>36</v>
+        <v>162</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>36</v>
+        <v>391</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>36</v>
+        <v>392</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>36</v>
@@ -8160,10 +8173,10 @@
         <v>36</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>43</v>
@@ -8175,24 +8188,24 @@
         <v>55</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>36</v>
+        <v>394</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>36</v>
+        <v>395</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8209,32 +8222,28 @@
         <v>36</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>36</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="M57" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>402</v>
-      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="Q57" t="s" s="2">
-        <v>403</v>
-      </c>
+      <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
         <v>36</v>
       </c>
@@ -8278,7 +8287,7 @@
         <v>36</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>34</v>
@@ -8293,10 +8302,10 @@
         <v>55</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>405</v>
+        <v>36</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>36</v>
@@ -8307,10 +8316,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8327,28 +8336,32 @@
         <v>36</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>36</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="P58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q58" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="P58" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
         <v>36</v>
       </c>
@@ -8392,7 +8405,7 @@
         <v>36</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>34</v>
@@ -8407,24 +8420,24 @@
         <v>55</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>220</v>
+        <v>408</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>221</v>
+        <v>409</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>411</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8447,19 +8460,17 @@
         <v>36</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>36</v>
@@ -8508,7 +8519,7 @@
         <v>36</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>34</v>
@@ -8523,24 +8534,24 @@
         <v>55</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>418</v>
+        <v>221</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8551,7 +8562,7 @@
         <v>34</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>36</v>
@@ -8563,19 +8574,19 @@
         <v>36</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="O60" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>36</v>
@@ -8624,13 +8635,13 @@
         <v>36</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>36</v>
@@ -8639,24 +8650,24 @@
         <v>55</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>425</v>
+        <v>36</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8667,7 +8678,7 @@
         <v>34</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>36</v>
@@ -8679,16 +8690,20 @@
         <v>36</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>36</v>
       </c>
@@ -8712,13 +8727,13 @@
         <v>36</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>182</v>
+        <v>36</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>432</v>
+        <v>36</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>433</v>
+        <v>36</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>36</v>
@@ -8736,13 +8751,13 @@
         <v>36</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>36</v>
@@ -8751,28 +8766,28 @@
         <v>55</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>36</v>
+        <v>429</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>437</v>
+        <v>36</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -8791,18 +8806,16 @@
         <v>36</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="N62" s="2"/>
-      <c r="O62" t="s" s="2">
-        <v>441</v>
-      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>36</v>
       </c>
@@ -8826,13 +8839,13 @@
         <v>36</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>36</v>
+        <v>182</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>36</v>
+        <v>436</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>36</v>
+        <v>437</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>36</v>
@@ -8850,7 +8863,7 @@
         <v>36</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>34</v>
@@ -8868,25 +8881,25 @@
         <v>36</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>36</v>
+        <v>441</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -8905,16 +8918,18 @@
         <v>36</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="M63" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>36</v>
       </c>
@@ -8962,7 +8977,7 @@
         <v>36</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>34</v>
@@ -8980,21 +8995,21 @@
         <v>36</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>448</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9017,13 +9032,13 @@
         <v>36</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>187</v>
+        <v>442</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9074,7 +9089,7 @@
         <v>36</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>34</v>
@@ -9092,13 +9107,13 @@
         <v>36</v>
       </c>
       <c r="AL64" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>324</v>
       </c>
     </row>
     <row r="65">
@@ -9117,7 +9132,7 @@
         <v>34</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>36</v>
@@ -9129,7 +9144,7 @@
         <v>36</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>318</v>
+        <v>187</v>
       </c>
       <c r="L65" t="s" s="2">
         <v>454</v>
@@ -9138,9 +9153,7 @@
         <v>455</v>
       </c>
       <c r="N65" s="2"/>
-      <c r="O65" t="s" s="2">
-        <v>456</v>
-      </c>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>36</v>
       </c>
@@ -9194,7 +9207,7 @@
         <v>34</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>36</v>
@@ -9203,16 +9216,130 @@
         <v>55</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="AL65" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>324</v>
+      <c r="B66" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="P66" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>328</v>
       </c>
     </row>
   </sheetData>

--- a/output/StructureDefinition-careplan.xlsx
+++ b/output/StructureDefinition-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-17T17:22:35+02:00</t>
+    <t>2023-07-18T09:29:43+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-careplan.xlsx
+++ b/output/StructureDefinition-careplan.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2417" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2417" uniqueCount="464">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-18T09:29:43+02:00</t>
+    <t>2023-07-18T12:13:58+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -314,10 +314,10 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>CarePlan.extension:socialdata</t>
-  </si>
-  <si>
-    <t>socialdata</t>
+    <t>CarePlan.extension:socialData</t>
+  </si>
+  <si>
+    <t>socialData</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://example.org/fhir/fish/StructureDefinition/social-data}
@@ -334,10 +334,10 @@
 </t>
   </si>
   <si>
-    <t>CarePlan.extension:historicaldata</t>
-  </si>
-  <si>
-    <t>historicaldata</t>
+    <t>CarePlan.extension:historicalData</t>
+  </si>
+  <si>
+    <t>historicalData</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://example.org/fhir/fish/StructureDefinition/historical-data}
@@ -350,10 +350,10 @@
     <t>Used to describe the historical background of a patient affiliated to CARA</t>
   </si>
   <si>
-    <t>CarePlan.extension:patientpriorities</t>
-  </si>
-  <si>
-    <t>patientpriorities</t>
+    <t>CarePlan.extension:patientPriorities</t>
+  </si>
+  <si>
+    <t>patientPriorities</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://example.org/fhir/fish/StructureDefinition/patient-priorities}
@@ -366,6 +366,38 @@
     <t>Used to describe the priorities of a patient with regard to his SCP</t>
   </si>
   <si>
+    <t>CarePlan.extension:anticipateDirectivesExist</t>
+  </si>
+  <si>
+    <t>anticipateDirectivesExist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://example.org/fhir/fish/StructureDefinition/anticipate-directives-exist}
+</t>
+  </si>
+  <si>
+    <t>Existence of AD</t>
+  </si>
+  <si>
+    <t>This field is used to indicate whether a patient has advanced directives</t>
+  </si>
+  <si>
+    <t>CarePlan.extension:anticipateDirectivesInEpr</t>
+  </si>
+  <si>
+    <t>anticipateDirectivesInEpr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://example.org/fhir/fish/StructureDefinition/anticipate-directives-epr}
+</t>
+  </si>
+  <si>
+    <t>Advance Directives in EHR</t>
+  </si>
+  <si>
+    <t>The anticipate directives are in the EHR of the patient. This field is present</t>
+  </si>
+  <si>
     <t>CarePlan.modifierExtension</t>
   </si>
   <si>
@@ -928,10 +960,10 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>CarePlan.activity.extension:attention-point</t>
-  </si>
-  <si>
-    <t>attention-point</t>
+    <t>CarePlan.activity.extension:attentionPoint</t>
+  </si>
+  <si>
+    <t>attentionPoint</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://example.org/fhir/fish/StructureDefinition/attention-point}
@@ -942,32 +974,6 @@
   </si>
   <si>
     <t>Attention Point on the observation</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.extension:outcomeReference</t>
-  </si>
-  <si>
-    <t>outcomeReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://example.org/fhir/fish/StructureDefinition/outcome-reference}
-</t>
-  </si>
-  <si>
-    <t>Outcome Reference</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.extension:Reference</t>
-  </si>
-  <si>
-    <t>Reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://example.org/fhir/fish/StructureDefinition/reference}
-</t>
-  </si>
-  <si>
-    <t>Type of observation made by the contributor</t>
   </si>
   <si>
     <t>CarePlan.activity.modifierExtension</t>
@@ -1764,9 +1770,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.03125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.75390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="40.75390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.5390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="23.05078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="6" max="6" width="2.203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="2.203125" customWidth="true" bestFit="true"/>
@@ -3055,43 +3061,41 @@
         <v>111</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="D12" t="s" s="2">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>34</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>36</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>36</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N12" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="O12" t="s" s="2">
-        <v>116</v>
-      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>36</v>
       </c>
@@ -3139,7 +3143,7 @@
         <v>36</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>34</v>
@@ -3148,7 +3152,7 @@
         <v>35</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>94</v>
@@ -3157,7 +3161,7 @@
         <v>36</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>36</v>
@@ -3168,12 +3172,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>36</v>
       </c>
@@ -3182,7 +3188,7 @@
         <v>34</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>36</v>
@@ -3191,23 +3197,19 @@
         <v>36</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="M13" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>123</v>
-      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>36</v>
       </c>
@@ -3255,7 +3257,7 @@
         <v>36</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>34</v>
@@ -3264,34 +3266,34 @@
         <v>35</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>127</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3304,22 +3306,26 @@
         <v>36</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>126</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>36</v>
       </c>
@@ -3367,7 +3373,7 @@
         <v>36</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>34</v>
@@ -3379,13 +3385,13 @@
         <v>36</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>36</v>
@@ -3396,10 +3402,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3422,18 +3428,20 @@
         <v>44</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O15" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>36</v>
       </c>
@@ -3481,7 +3489,7 @@
         <v>36</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>34</v>
@@ -3496,28 +3504,28 @@
         <v>55</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>36</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3536,18 +3544,16 @@
         <v>44</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L16" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>143</v>
-      </c>
       <c r="N16" s="2"/>
-      <c r="O16" t="s" s="2">
-        <v>144</v>
-      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>36</v>
       </c>
@@ -3595,7 +3601,7 @@
         <v>36</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>34</v>
@@ -3610,10 +3616,10 @@
         <v>55</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>36</v>
@@ -3624,14 +3630,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>147</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3650,20 +3656,18 @@
         <v>44</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>141</v>
+        <v>57</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>36</v>
       </c>
@@ -3711,7 +3715,7 @@
         <v>36</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>34</v>
@@ -3726,10 +3730,10 @@
         <v>55</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>36</v>
@@ -3740,14 +3744,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3766,18 +3770,18 @@
         <v>44</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="M18" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>36</v>
       </c>
@@ -3825,7 +3829,7 @@
         <v>36</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>34</v>
@@ -3840,7 +3844,7 @@
         <v>55</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>36</v>
+        <v>155</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>36</v>
@@ -3854,33 +3858,33 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>36</v>
+        <v>157</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="L19" t="s" s="2">
         <v>158</v>
@@ -3917,13 +3921,13 @@
         <v>36</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>162</v>
+        <v>36</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>159</v>
+        <v>36</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>163</v>
+        <v>36</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>36</v>
@@ -3941,13 +3945,13 @@
         <v>36</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>36</v>
@@ -3956,24 +3960,24 @@
         <v>55</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>165</v>
+        <v>36</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>166</v>
+        <v>36</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>167</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3981,35 +3985,33 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>36</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>44</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>36</v>
       </c>
@@ -4033,13 +4035,13 @@
         <v>36</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>162</v>
+        <v>36</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>173</v>
+        <v>36</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>174</v>
+        <v>36</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>36</v>
@@ -4057,13 +4059,13 @@
         <v>36</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>36</v>
@@ -4072,7 +4074,7 @@
         <v>55</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>175</v>
+        <v>36</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>36</v>
@@ -4086,10 +4088,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4097,34 +4099,34 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>36</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>44</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>177</v>
+        <v>63</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>36</v>
@@ -4149,13 +4151,13 @@
         <v>36</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>36</v>
@@ -4173,13 +4175,13 @@
         <v>36</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>36</v>
@@ -4188,24 +4190,24 @@
         <v>55</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>36</v>
+        <v>174</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>36</v>
+        <v>175</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>36</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4213,7 +4215,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>43</v>
@@ -4222,22 +4224,26 @@
         <v>36</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>44</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>187</v>
+        <v>63</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>36</v>
       </c>
@@ -4261,13 +4267,13 @@
         <v>36</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>36</v>
+        <v>183</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>36</v>
+        <v>184</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>36</v>
@@ -4285,10 +4291,10 @@
         <v>36</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>43</v>
@@ -4300,7 +4306,7 @@
         <v>55</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>36</v>
+        <v>185</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>36</v>
@@ -4314,10 +4320,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4328,7 +4334,7 @@
         <v>34</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>36</v>
@@ -4343,14 +4349,16 @@
         <v>187</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="O23" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>36</v>
@@ -4375,13 +4383,13 @@
         <v>36</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>36</v>
+        <v>192</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>36</v>
+        <v>193</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>36</v>
+        <v>194</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>36</v>
@@ -4399,13 +4407,13 @@
         <v>36</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>36</v>
@@ -4420,7 +4428,7 @@
         <v>36</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>36</v>
@@ -4428,18 +4436,18 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>196</v>
+        <v>36</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>43</v>
@@ -4511,10 +4519,10 @@
         <v>36</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>43</v>
@@ -4526,24 +4534,24 @@
         <v>55</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>200</v>
+        <v>36</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>201</v>
+        <v>36</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>202</v>
+        <v>36</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>203</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4566,18 +4574,18 @@
         <v>44</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>36</v>
       </c>
@@ -4625,7 +4633,7 @@
         <v>36</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>34</v>
@@ -4640,32 +4648,32 @@
         <v>55</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>209</v>
+        <v>36</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>210</v>
+        <v>36</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>212</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>43</v>
@@ -4680,20 +4688,16 @@
         <v>44</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>36</v>
       </c>
@@ -4741,10 +4745,10 @@
         <v>36</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>43</v>
@@ -4756,28 +4760,28 @@
         <v>55</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>225</v>
+        <v>36</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4796,15 +4800,17 @@
         <v>44</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>36</v>
@@ -4853,7 +4859,7 @@
         <v>36</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>34</v>
@@ -4868,28 +4874,28 @@
         <v>55</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>36</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>36</v>
+        <v>224</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4908,18 +4914,20 @@
         <v>44</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>36</v>
       </c>
@@ -4967,7 +4975,7 @@
         <v>36</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>34</v>
@@ -4982,35 +4990,35 @@
         <v>55</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>36</v>
+        <v>231</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>36</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>36</v>
+        <v>235</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>34</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>36</v>
@@ -5019,20 +5027,18 @@
         <v>36</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>36</v>
@@ -5081,13 +5087,13 @@
         <v>36</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>36</v>
@@ -5096,13 +5102,13 @@
         <v>55</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>36</v>
+        <v>239</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>36</v>
+        <v>240</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>36</v>
+        <v>241</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>36</v>
@@ -5110,10 +5116,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5124,7 +5130,7 @@
         <v>34</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>36</v>
@@ -5133,21 +5139,21 @@
         <v>36</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>247</v>
-      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>36</v>
       </c>
@@ -5195,13 +5201,13 @@
         <v>36</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>36</v>
@@ -5210,13 +5216,13 @@
         <v>55</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>36</v>
@@ -5224,10 +5230,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5247,23 +5253,21 @@
         <v>36</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="M31" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>255</v>
-      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>36</v>
       </c>
@@ -5311,7 +5315,7 @@
         <v>36</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>34</v>
@@ -5326,24 +5330,24 @@
         <v>55</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>256</v>
+        <v>36</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>258</v>
+        <v>36</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>259</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5366,19 +5370,17 @@
         <v>36</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>36</v>
@@ -5427,7 +5429,7 @@
         <v>36</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>34</v>
@@ -5442,13 +5444,13 @@
         <v>55</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>36</v>
+        <v>259</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>36</v>
@@ -5456,10 +5458,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5479,22 +5481,22 @@
         <v>36</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>36</v>
@@ -5543,7 +5545,7 @@
         <v>36</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>34</v>
@@ -5558,24 +5560,24 @@
         <v>55</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>36</v>
+        <v>266</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>36</v>
+        <v>268</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5598,17 +5600,19 @@
         <v>36</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="O34" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>36</v>
@@ -5657,7 +5661,7 @@
         <v>36</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>34</v>
@@ -5669,13 +5673,13 @@
         <v>36</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>280</v>
+        <v>55</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>282</v>
+        <v>36</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>36</v>
@@ -5686,10 +5690,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5700,7 +5704,7 @@
         <v>34</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>36</v>
@@ -5712,16 +5716,20 @@
         <v>36</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>187</v>
+        <v>278</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>36</v>
       </c>
@@ -5769,39 +5777,39 @@
         <v>36</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>36</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5809,7 +5817,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>35</v>
@@ -5824,16 +5832,18 @@
         <v>36</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>88</v>
+        <v>286</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>89</v>
+        <v>287</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>90</v>
+        <v>288</v>
       </c>
       <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>36</v>
       </c>
@@ -5869,17 +5879,19 @@
         <v>36</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AC36" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="AD36" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>34</v>
@@ -5891,13 +5903,13 @@
         <v>36</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>94</v>
+        <v>290</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>36</v>
+        <v>291</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>36</v>
+        <v>292</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>36</v>
@@ -5908,14 +5920,12 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
         <v>36</v>
       </c>
@@ -5936,13 +5946,13 @@
         <v>36</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>292</v>
+        <v>197</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5993,25 +6003,25 @@
         <v>36</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>36</v>
+        <v>297</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>36</v>
@@ -6022,14 +6032,12 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
         <v>36</v>
       </c>
@@ -6038,7 +6046,7 @@
         <v>34</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>36</v>
@@ -6050,13 +6058,13 @@
         <v>36</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>297</v>
+        <v>88</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>298</v>
+        <v>89</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>294</v>
+        <v>90</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6095,19 +6103,17 @@
         <v>36</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="AC38" s="2"/>
       <c r="AD38" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>34</v>
@@ -6116,7 +6122,7 @@
         <v>35</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>94</v>
@@ -6136,20 +6142,20 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>36</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>43</v>
@@ -6164,13 +6170,13 @@
         <v>36</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6221,7 +6227,7 @@
         <v>36</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>34</v>
@@ -6250,14 +6256,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6279,16 +6285,16 @@
         <v>88</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>36</v>
@@ -6337,7 +6343,7 @@
         <v>36</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>34</v>
@@ -6366,10 +6372,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6392,16 +6398,16 @@
         <v>36</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6427,13 +6433,13 @@
         <v>36</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>36</v>
@@ -6451,7 +6457,7 @@
         <v>36</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>34</v>
@@ -6480,10 +6486,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6506,19 +6512,19 @@
         <v>36</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>36</v>
@@ -6567,7 +6573,7 @@
         <v>36</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>34</v>
@@ -6582,10 +6588,10 @@
         <v>55</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>36</v>
@@ -6596,10 +6602,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6622,19 +6628,19 @@
         <v>36</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>36</v>
@@ -6683,7 +6689,7 @@
         <v>36</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>34</v>
@@ -6701,21 +6707,21 @@
         <v>36</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6738,19 +6744,19 @@
         <v>36</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>36</v>
@@ -6799,7 +6805,7 @@
         <v>36</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>34</v>
@@ -6808,16 +6814,16 @@
         <v>43</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>55</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>36</v>
@@ -6828,10 +6834,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6854,17 +6860,17 @@
         <v>36</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>36</v>
@@ -6913,7 +6919,7 @@
         <v>36</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>34</v>
@@ -6922,7 +6928,7 @@
         <v>43</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>55</v>
@@ -6931,7 +6937,7 @@
         <v>36</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>36</v>
@@ -6942,10 +6948,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6968,13 +6974,13 @@
         <v>36</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7025,7 +7031,7 @@
         <v>36</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>34</v>
@@ -7043,7 +7049,7 @@
         <v>36</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>36</v>
@@ -7054,14 +7060,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7083,13 +7089,13 @@
         <v>88</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7139,7 +7145,7 @@
         <v>36</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>34</v>
@@ -7157,7 +7163,7 @@
         <v>36</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>36</v>
@@ -7168,14 +7174,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7197,16 +7203,16 @@
         <v>88</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>36</v>
@@ -7255,7 +7261,7 @@
         <v>36</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>34</v>
@@ -7284,10 +7290,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7313,14 +7319,14 @@
         <v>63</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>36</v>
@@ -7345,13 +7351,13 @@
         <v>36</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>36</v>
@@ -7369,7 +7375,7 @@
         <v>36</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>34</v>
@@ -7387,7 +7393,7 @@
         <v>36</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>36</v>
@@ -7398,10 +7404,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7424,17 +7430,17 @@
         <v>36</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>36</v>
@@ -7483,7 +7489,7 @@
         <v>36</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>34</v>
@@ -7498,10 +7504,10 @@
         <v>55</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>36</v>
@@ -7512,10 +7518,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7541,16 +7547,16 @@
         <v>57</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="M51" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="O51" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>36</v>
@@ -7599,7 +7605,7 @@
         <v>36</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>34</v>
@@ -7614,10 +7620,10 @@
         <v>55</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>36</v>
@@ -7628,10 +7634,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7654,19 +7660,19 @@
         <v>36</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>36</v>
@@ -7691,13 +7697,13 @@
         <v>36</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>36</v>
@@ -7715,7 +7721,7 @@
         <v>36</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>34</v>
@@ -7730,24 +7736,24 @@
         <v>55</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7770,16 +7776,16 @@
         <v>36</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7805,13 +7811,13 @@
         <v>36</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>36</v>
@@ -7829,7 +7835,7 @@
         <v>36</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>34</v>
@@ -7844,7 +7850,7 @@
         <v>55</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>36</v>
@@ -7858,10 +7864,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7884,16 +7890,16 @@
         <v>36</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7943,7 +7949,7 @@
         <v>36</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>34</v>
@@ -7958,7 +7964,7 @@
         <v>55</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>36</v>
@@ -7972,10 +7978,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7998,17 +8004,17 @@
         <v>36</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>36</v>
@@ -8057,7 +8063,7 @@
         <v>36</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>34</v>
@@ -8075,7 +8081,7 @@
         <v>36</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>36</v>
@@ -8086,10 +8092,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8115,16 +8121,16 @@
         <v>63</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>36</v>
@@ -8149,13 +8155,13 @@
         <v>36</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>36</v>
@@ -8173,7 +8179,7 @@
         <v>36</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>43</v>
@@ -8188,24 +8194,24 @@
         <v>55</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8228,16 +8234,16 @@
         <v>36</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8287,7 +8293,7 @@
         <v>36</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>34</v>
@@ -8302,7 +8308,7 @@
         <v>55</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>36</v>
@@ -8316,10 +8322,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8342,70 +8348,70 @@
         <v>36</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="P58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q58" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF58" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="P58" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Q58" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="R58" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>34</v>
@@ -8420,10 +8426,10 @@
         <v>55</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>36</v>
@@ -8434,10 +8440,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8460,17 +8466,17 @@
         <v>36</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>36</v>
@@ -8519,7 +8525,7 @@
         <v>36</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>34</v>
@@ -8534,24 +8540,24 @@
         <v>55</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8574,19 +8580,19 @@
         <v>36</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>36</v>
@@ -8635,7 +8641,7 @@
         <v>36</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>34</v>
@@ -8653,21 +8659,21 @@
         <v>36</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8690,19 +8696,19 @@
         <v>36</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>36</v>
@@ -8751,7 +8757,7 @@
         <v>36</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>34</v>
@@ -8766,24 +8772,24 @@
         <v>55</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8806,13 +8812,13 @@
         <v>36</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8839,13 +8845,13 @@
         <v>36</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>36</v>
@@ -8863,7 +8869,7 @@
         <v>36</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>34</v>
@@ -8881,25 +8887,25 @@
         <v>36</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -8918,17 +8924,17 @@
         <v>36</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>36</v>
@@ -8977,7 +8983,7 @@
         <v>36</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>34</v>
@@ -8995,21 +9001,21 @@
         <v>36</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9032,13 +9038,13 @@
         <v>36</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9089,7 +9095,7 @@
         <v>36</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>34</v>
@@ -9107,21 +9113,21 @@
         <v>36</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9144,13 +9150,13 @@
         <v>36</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9201,7 +9207,7 @@
         <v>36</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>34</v>
@@ -9219,21 +9225,21 @@
         <v>36</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9256,17 +9262,17 @@
         <v>36</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>36</v>
@@ -9315,7 +9321,7 @@
         <v>36</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>34</v>
@@ -9330,16 +9336,16 @@
         <v>55</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>

--- a/output/StructureDefinition-careplan.xlsx
+++ b/output/StructureDefinition-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-18T12:13:58+02:00</t>
+    <t>2023-07-18T13:14:18+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-careplan.xlsx
+++ b/output/StructureDefinition-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-18T13:14:18+02:00</t>
+    <t>2023-07-18T13:20:53+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-careplan.xlsx
+++ b/output/StructureDefinition-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-18T13:20:53+02:00</t>
+    <t>2023-07-18T14:12:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-careplan.xlsx
+++ b/output/StructureDefinition-careplan.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2417" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2489" uniqueCount="474">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-18T14:12:38+02:00</t>
+    <t>2023-07-18T14:23:59+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -376,26 +376,42 @@
 </t>
   </si>
   <si>
-    <t>Existence of AD</t>
+    <t>Existence of Advance Directives</t>
   </si>
   <si>
     <t>This field is used to indicate whether a patient has advanced directives</t>
   </si>
   <si>
-    <t>CarePlan.extension:anticipateDirectivesInEpr</t>
-  </si>
-  <si>
-    <t>anticipateDirectivesInEpr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://example.org/fhir/fish/StructureDefinition/anticipate-directives-epr}
+    <t>CarePlan.extension:anticipateDirectivesInEhr</t>
+  </si>
+  <si>
+    <t>anticipateDirectivesInEhr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://example.org/fhir/fish/StructureDefinition/anticipate-directives-ehr}
 </t>
   </si>
   <si>
     <t>Advance Directives in EHR</t>
   </si>
   <si>
-    <t>The anticipate directives are in the EHR of the patient. This field is present</t>
+    <t>The anticipate directives are in the EHR of the patient. This field is present and is a boolean</t>
+  </si>
+  <si>
+    <t>CarePlan.extension:anticipateDirectivesLocation</t>
+  </si>
+  <si>
+    <t>anticipateDirectivesLocation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://example.org/fhir/fish/StructureDefinition/anticipate-directives-location}
+</t>
+  </si>
+  <si>
+    <t>Advance Directives Location</t>
+  </si>
+  <si>
+    <t>This field is used to indicate where the advance directives are if they exist and are not located in the EHR.</t>
   </si>
   <si>
     <t>CarePlan.modifierExtension</t>
@@ -974,6 +990,22 @@
   </si>
   <si>
     <t>Attention Point on the observation</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.extension:showNote</t>
+  </si>
+  <si>
+    <t>showNote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://example.org/fhir/fish/StructureDefinition/showNote}
+</t>
+  </si>
+  <si>
+    <t>Show note in SCP monitoring screen</t>
+  </si>
+  <si>
+    <t>Notes are by default not shown in the SCP monitoring screen. However a member of the SCP interprofessional team can choose to disclose it to the rest of the team.</t>
   </si>
   <si>
     <t>CarePlan.activity.modifierExtension</t>
@@ -1761,7 +1793,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN66"/>
+  <dimension ref="A1:AN68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1770,9 +1802,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.75390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.64453125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="40.75390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="23.05078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="26.01953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="6" max="6" width="2.203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="2.203125" customWidth="true" bestFit="true"/>
@@ -3289,43 +3321,41 @@
         <v>121</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="D14" t="s" s="2">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>34</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="N14" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="O14" t="s" s="2">
-        <v>126</v>
-      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>36</v>
       </c>
@@ -3373,7 +3403,7 @@
         <v>36</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>34</v>
@@ -3382,7 +3412,7 @@
         <v>35</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>94</v>
@@ -3391,7 +3421,7 @@
         <v>36</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>36</v>
@@ -3402,14 +3432,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3422,25 +3452,25 @@
         <v>36</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>36</v>
@@ -3489,7 +3519,7 @@
         <v>36</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>34</v>
@@ -3501,27 +3531,27 @@
         <v>36</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>137</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3544,16 +3574,20 @@
         <v>44</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>36</v>
       </c>
@@ -3601,7 +3635,7 @@
         <v>36</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>34</v>
@@ -3616,24 +3650,24 @@
         <v>55</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AM16" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>36</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3656,7 +3690,7 @@
         <v>44</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>145</v>
@@ -3664,9 +3698,7 @@
       <c r="M17" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="N17" t="s" s="2">
-        <v>147</v>
-      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>36</v>
@@ -3715,7 +3747,7 @@
         <v>36</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>34</v>
@@ -3730,10 +3762,10 @@
         <v>55</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>36</v>
@@ -3751,7 +3783,7 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>150</v>
+        <v>36</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3770,18 +3802,18 @@
         <v>44</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="M18" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>154</v>
-      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>36</v>
       </c>
@@ -3844,10 +3876,10 @@
         <v>55</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>36</v>
+        <v>148</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>36</v>
@@ -3858,14 +3890,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3884,19 +3916,17 @@
         <v>44</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" s="2"/>
+      <c r="O19" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>36</v>
@@ -3945,7 +3975,7 @@
         <v>36</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>34</v>
@@ -3960,7 +3990,7 @@
         <v>55</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>36</v>
@@ -3974,14 +4004,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>36</v>
+        <v>162</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4000,18 +4030,20 @@
         <v>44</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="N20" t="s" s="2">
+      <c r="O20" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>36</v>
       </c>
@@ -4059,7 +4091,7 @@
         <v>36</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>34</v>
@@ -4074,7 +4106,7 @@
         <v>55</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>36</v>
+        <v>167</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>36</v>
@@ -4088,10 +4120,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4099,35 +4131,33 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>36</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>44</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>63</v>
+        <v>156</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="O21" t="s" s="2">
         <v>171</v>
       </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>36</v>
       </c>
@@ -4151,13 +4181,13 @@
         <v>36</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>169</v>
+        <v>36</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>173</v>
+        <v>36</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>36</v>
@@ -4175,13 +4205,13 @@
         <v>36</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>36</v>
@@ -4190,24 +4220,24 @@
         <v>55</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>174</v>
+        <v>36</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>175</v>
+        <v>36</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>176</v>
+        <v>36</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>177</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4233,16 +4263,16 @@
         <v>63</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>36</v>
@@ -4267,31 +4297,31 @@
         <v>36</v>
       </c>
       <c r="X22" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>43</v>
@@ -4306,24 +4336,24 @@
         <v>55</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>36</v>
+        <v>181</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>36</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4331,34 +4361,34 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>36</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>44</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="O23" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>36</v>
@@ -4383,13 +4413,13 @@
         <v>36</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>36</v>
@@ -4407,13 +4437,13 @@
         <v>36</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>36</v>
@@ -4422,13 +4452,13 @@
         <v>55</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>36</v>
+        <v>190</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>195</v>
+        <v>36</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>36</v>
@@ -4436,10 +4466,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4450,7 +4480,7 @@
         <v>34</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>36</v>
@@ -4462,16 +4492,20 @@
         <v>44</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>36</v>
       </c>
@@ -4495,13 +4529,13 @@
         <v>36</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>36</v>
+        <v>197</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>36</v>
+        <v>198</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>36</v>
+        <v>199</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>36</v>
@@ -4519,13 +4553,13 @@
         <v>36</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>36</v>
@@ -4540,7 +4574,7 @@
         <v>36</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>36</v>
+        <v>200</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>36</v>
@@ -4548,10 +4582,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4574,18 +4608,16 @@
         <v>44</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>203</v>
-      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>36</v>
       </c>
@@ -4633,7 +4665,7 @@
         <v>36</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>34</v>
@@ -4654,7 +4686,7 @@
         <v>36</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>36</v>
@@ -4669,11 +4701,11 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>206</v>
+        <v>36</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>43</v>
@@ -4688,16 +4720,18 @@
         <v>44</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="N26" s="2"/>
+      <c r="O26" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="M26" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>36</v>
       </c>
@@ -4748,7 +4782,7 @@
         <v>205</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>43</v>
@@ -4760,32 +4794,32 @@
         <v>55</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>210</v>
+        <v>36</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>213</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>43</v>
@@ -4800,17 +4834,15 @@
         <v>44</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>36</v>
@@ -4859,10 +4891,10 @@
         <v>36</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>43</v>
@@ -4874,28 +4906,28 @@
         <v>55</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>224</v>
+        <v>36</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4914,20 +4946,18 @@
         <v>44</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>36</v>
       </c>
@@ -4975,7 +5005,7 @@
         <v>36</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>34</v>
@@ -4990,28 +5020,28 @@
         <v>55</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5030,16 +5060,20 @@
         <v>44</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>36</v>
       </c>
@@ -5087,7 +5121,7 @@
         <v>36</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>34</v>
@@ -5102,28 +5136,28 @@
         <v>55</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>36</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>36</v>
+        <v>240</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5142,17 +5176,15 @@
         <v>44</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L30" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>246</v>
-      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>36</v>
@@ -5201,7 +5233,7 @@
         <v>36</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>34</v>
@@ -5216,13 +5248,13 @@
         <v>55</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>36</v>
+        <v>245</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>36</v>
@@ -5230,10 +5262,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5244,7 +5276,7 @@
         <v>34</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>36</v>
@@ -5253,19 +5285,19 @@
         <v>36</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5315,13 +5347,13 @@
         <v>36</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>36</v>
@@ -5330,13 +5362,13 @@
         <v>55</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>36</v>
+        <v>252</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>36</v>
+        <v>253</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>36</v>
@@ -5344,10 +5376,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5370,7 +5402,7 @@
         <v>36</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="L32" t="s" s="2">
         <v>255</v>
@@ -5378,10 +5410,10 @@
       <c r="M32" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="N32" s="2"/>
-      <c r="O32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>257</v>
       </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>36</v>
       </c>
@@ -5429,7 +5461,7 @@
         <v>36</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>34</v>
@@ -5444,13 +5476,13 @@
         <v>55</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>258</v>
+        <v>36</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>259</v>
+        <v>36</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>36</v>
@@ -5458,10 +5490,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5481,22 +5513,20 @@
         <v>36</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>36</v>
@@ -5545,7 +5575,7 @@
         <v>36</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>34</v>
@@ -5560,24 +5590,24 @@
         <v>55</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>267</v>
+        <v>36</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>269</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5597,22 +5627,22 @@
         <v>36</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>36</v>
@@ -5661,7 +5691,7 @@
         <v>36</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>34</v>
@@ -5676,24 +5706,24 @@
         <v>55</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>36</v>
+        <v>272</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>36</v>
+        <v>273</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>36</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5716,19 +5746,19 @@
         <v>36</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>36</v>
@@ -5777,7 +5807,7 @@
         <v>36</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>34</v>
@@ -5792,24 +5822,24 @@
         <v>55</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>36</v>
+        <v>281</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>283</v>
+        <v>36</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>284</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5832,17 +5862,19 @@
         <v>36</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="N36" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>36</v>
@@ -5891,7 +5923,7 @@
         <v>36</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>34</v>
@@ -5903,27 +5935,27 @@
         <v>36</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>290</v>
+        <v>55</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>291</v>
+        <v>36</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>36</v>
+        <v>289</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5934,7 +5966,7 @@
         <v>34</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>36</v>
@@ -5946,16 +5978,18 @@
         <v>36</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>197</v>
+        <v>291</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="M37" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>36</v>
       </c>
@@ -6003,22 +6037,22 @@
         <v>36</v>
       </c>
       <c r="AF37" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>36</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>297</v>
@@ -6046,7 +6080,7 @@
         <v>34</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>36</v>
@@ -6058,13 +6092,13 @@
         <v>36</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>88</v>
+        <v>202</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>89</v>
+        <v>299</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6103,35 +6137,37 @@
         <v>36</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AC38" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="AD38" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>36</v>
+        <v>302</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>36</v>
@@ -6142,14 +6178,12 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
         <v>36</v>
       </c>
@@ -6158,7 +6192,7 @@
         <v>34</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>36</v>
@@ -6170,13 +6204,13 @@
         <v>36</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>302</v>
+        <v>88</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>303</v>
+        <v>89</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>304</v>
+        <v>90</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6215,19 +6249,17 @@
         <v>36</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="AC39" s="2"/>
       <c r="AD39" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>34</v>
@@ -6236,7 +6268,7 @@
         <v>35</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>94</v>
@@ -6259,43 +6291,41 @@
         <v>305</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="C40" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="D40" t="s" s="2">
-        <v>306</v>
+        <v>36</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>34</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>36</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>88</v>
+        <v>307</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>126</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>36</v>
       </c>
@@ -6343,7 +6373,7 @@
         <v>36</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>34</v>
@@ -6352,7 +6382,7 @@
         <v>35</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>94</v>
@@ -6361,7 +6391,7 @@
         <v>36</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>36</v>
@@ -6375,9 +6405,11 @@
         <v>310</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="C41" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="D41" t="s" s="2">
         <v>36</v>
       </c>
@@ -6386,7 +6418,7 @@
         <v>34</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>36</v>
@@ -6398,17 +6430,15 @@
         <v>36</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>187</v>
+        <v>312</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>36</v>
@@ -6433,13 +6463,13 @@
         <v>36</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>192</v>
+        <v>36</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>314</v>
+        <v>36</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>315</v>
+        <v>36</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>36</v>
@@ -6457,7 +6487,7 @@
         <v>36</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>34</v>
@@ -6466,10 +6496,10 @@
         <v>35</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>36</v>
@@ -6486,14 +6516,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>36</v>
+        <v>316</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6506,13 +6536,13 @@
         <v>36</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>271</v>
+        <v>88</v>
       </c>
       <c r="L42" t="s" s="2">
         <v>317</v>
@@ -6521,10 +6551,10 @@
         <v>318</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>319</v>
+        <v>130</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>320</v>
+        <v>131</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>36</v>
@@ -6573,7 +6603,7 @@
         <v>36</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>34</v>
@@ -6585,13 +6615,13 @@
         <v>36</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>321</v>
+        <v>36</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>322</v>
+        <v>86</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>36</v>
@@ -6602,10 +6632,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6628,20 +6658,18 @@
         <v>36</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>324</v>
+        <v>192</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>36</v>
       </c>
@@ -6665,13 +6693,13 @@
         <v>36</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>36</v>
+        <v>197</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>36</v>
+        <v>324</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>36</v>
+        <v>325</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>36</v>
@@ -6689,7 +6717,7 @@
         <v>36</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>34</v>
@@ -6707,21 +6735,21 @@
         <v>36</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>329</v>
+        <v>36</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>330</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6732,7 +6760,7 @@
         <v>34</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>36</v>
@@ -6744,19 +6772,19 @@
         <v>36</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>332</v>
+        <v>276</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>36</v>
@@ -6805,25 +6833,25 @@
         <v>36</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>337</v>
+        <v>36</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>55</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>36</v>
@@ -6834,10 +6862,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6848,7 +6876,7 @@
         <v>34</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>36</v>
@@ -6860,17 +6888,19 @@
         <v>36</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>286</v>
+        <v>334</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="O45" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>36</v>
@@ -6919,16 +6949,16 @@
         <v>36</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>337</v>
+        <v>36</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>55</v>
@@ -6937,21 +6967,21 @@
         <v>36</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>36</v>
+        <v>340</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6974,16 +7004,20 @@
         <v>36</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>197</v>
+        <v>342</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>294</v>
+        <v>343</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>36</v>
       </c>
@@ -7031,7 +7065,7 @@
         <v>36</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>296</v>
+        <v>341</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>34</v>
@@ -7040,13 +7074,13 @@
         <v>43</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>36</v>
+        <v>348</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>297</v>
@@ -7060,21 +7094,21 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>34</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>36</v>
@@ -7086,18 +7120,18 @@
         <v>36</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>88</v>
+        <v>291</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>36</v>
       </c>
@@ -7145,25 +7179,25 @@
         <v>36</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>299</v>
+        <v>349</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>297</v>
+        <v>353</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>36</v>
@@ -7174,46 +7208,42 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>306</v>
+        <v>36</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>34</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>88</v>
+        <v>202</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>126</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>36</v>
       </c>
@@ -7261,25 +7291,25 @@
         <v>36</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>86</v>
+        <v>302</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>36</v>
@@ -7290,21 +7320,21 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>34</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>36</v>
@@ -7316,18 +7346,18 @@
         <v>36</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>36</v>
       </c>
@@ -7351,13 +7381,13 @@
         <v>36</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>353</v>
+        <v>36</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>354</v>
+        <v>36</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>36</v>
@@ -7375,25 +7405,25 @@
         <v>36</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>349</v>
+        <v>304</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>355</v>
+        <v>302</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>36</v>
@@ -7404,14 +7434,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>36</v>
+        <v>316</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7424,23 +7454,25 @@
         <v>36</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>357</v>
+        <v>88</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>140</v>
+        <v>317</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="O50" t="s" s="2">
-        <v>359</v>
+        <v>131</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>36</v>
@@ -7489,7 +7521,7 @@
         <v>36</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>34</v>
@@ -7501,13 +7533,13 @@
         <v>36</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>142</v>
+        <v>36</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>36</v>
@@ -7518,10 +7550,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7532,7 +7564,7 @@
         <v>34</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>36</v>
@@ -7544,19 +7576,17 @@
         <v>36</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>145</v>
+        <v>360</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="N51" t="s" s="2">
-        <v>147</v>
-      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>36</v>
@@ -7581,13 +7611,13 @@
         <v>36</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>36</v>
+        <v>177</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>36</v>
+        <v>363</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>36</v>
+        <v>364</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>36</v>
@@ -7605,13 +7635,13 @@
         <v>36</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>36</v>
@@ -7620,10 +7650,10 @@
         <v>55</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>148</v>
+        <v>36</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>143</v>
+        <v>365</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>36</v>
@@ -7634,10 +7664,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7648,7 +7678,7 @@
         <v>34</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>36</v>
@@ -7660,19 +7690,17 @@
         <v>36</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>187</v>
+        <v>367</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>363</v>
+        <v>145</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>36</v>
@@ -7697,13 +7725,13 @@
         <v>36</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>192</v>
+        <v>36</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>367</v>
+        <v>36</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>368</v>
+        <v>36</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>36</v>
@@ -7721,13 +7749,13 @@
         <v>36</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>36</v>
@@ -7736,24 +7764,24 @@
         <v>55</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>369</v>
+        <v>147</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>370</v>
+        <v>148</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>371</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7776,18 +7804,20 @@
         <v>36</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>187</v>
+        <v>57</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>373</v>
+        <v>150</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="O53" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>36</v>
       </c>
@@ -7811,13 +7841,13 @@
         <v>36</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>192</v>
+        <v>36</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>376</v>
+        <v>36</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>377</v>
+        <v>36</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>36</v>
@@ -7835,7 +7865,7 @@
         <v>36</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>34</v>
@@ -7850,10 +7880,10 @@
         <v>55</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>378</v>
+        <v>153</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>36</v>
+        <v>148</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>36</v>
@@ -7864,10 +7894,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7878,7 +7908,7 @@
         <v>34</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>36</v>
@@ -7890,18 +7920,20 @@
         <v>36</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>380</v>
+        <v>192</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>36</v>
       </c>
@@ -7925,13 +7957,13 @@
         <v>36</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>36</v>
+        <v>197</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>36</v>
+        <v>377</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>36</v>
+        <v>378</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>36</v>
@@ -7949,13 +7981,13 @@
         <v>36</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>36</v>
@@ -7964,24 +7996,24 @@
         <v>55</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>266</v>
+        <v>379</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>36</v>
+        <v>380</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>36</v>
+        <v>381</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8004,18 +8036,18 @@
         <v>36</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>278</v>
+        <v>192</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="M55" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" t="s" s="2">
-        <v>387</v>
-      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>36</v>
       </c>
@@ -8039,13 +8071,13 @@
         <v>36</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>36</v>
+        <v>197</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>36</v>
+        <v>386</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>36</v>
+        <v>387</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>36</v>
@@ -8063,7 +8095,7 @@
         <v>36</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>34</v>
@@ -8078,10 +8110,10 @@
         <v>55</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>36</v>
+        <v>388</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>283</v>
+        <v>36</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>36</v>
@@ -8092,10 +8124,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8103,35 +8135,33 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>36</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>36</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>63</v>
+        <v>390</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>392</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>36</v>
       </c>
@@ -8155,13 +8185,13 @@
         <v>36</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>393</v>
+        <v>36</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>394</v>
+        <v>36</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>36</v>
@@ -8179,13 +8209,13 @@
         <v>36</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>36</v>
@@ -8194,24 +8224,24 @@
         <v>55</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>396</v>
+        <v>36</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>397</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8222,7 +8252,7 @@
         <v>34</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>36</v>
@@ -8234,18 +8264,18 @@
         <v>36</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>187</v>
+        <v>283</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="O57" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>36</v>
       </c>
@@ -8293,13 +8323,13 @@
         <v>36</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>36</v>
@@ -8308,10 +8338,10 @@
         <v>55</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>402</v>
+        <v>36</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>36</v>
+        <v>288</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>36</v>
@@ -8322,10 +8352,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8333,7 +8363,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>43</v>
@@ -8348,53 +8378,51 @@
         <v>36</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="P58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="Z58" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="P58" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Q58" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="R58" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>36</v>
-      </c>
       <c r="AA58" t="s" s="2">
         <v>36</v>
       </c>
@@ -8411,10 +8439,10 @@
         <v>36</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>43</v>
@@ -8426,24 +8454,24 @@
         <v>55</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>36</v>
+        <v>407</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8466,18 +8494,18 @@
         <v>36</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>413</v>
+        <v>192</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" t="s" s="2">
-        <v>416</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>36</v>
       </c>
@@ -8525,7 +8553,7 @@
         <v>36</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>34</v>
@@ -8540,24 +8568,24 @@
         <v>55</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>230</v>
+        <v>412</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>231</v>
+        <v>36</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>417</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8574,30 +8602,32 @@
         <v>36</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>36</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="P60" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q60" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="L60" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="P60" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
         <v>36</v>
       </c>
@@ -8641,7 +8671,7 @@
         <v>36</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>34</v>
@@ -8656,24 +8686,24 @@
         <v>55</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>36</v>
+        <v>420</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>425</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8684,7 +8714,7 @@
         <v>34</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>36</v>
@@ -8696,19 +8726,17 @@
         <v>36</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>430</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>36</v>
@@ -8757,13 +8785,13 @@
         <v>36</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>36</v>
@@ -8772,24 +8800,24 @@
         <v>55</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>431</v>
+        <v>235</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>432</v>
+        <v>236</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8812,16 +8840,20 @@
         <v>36</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>36</v>
       </c>
@@ -8845,13 +8877,13 @@
         <v>36</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>192</v>
+        <v>36</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>438</v>
+        <v>36</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>439</v>
+        <v>36</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>36</v>
@@ -8869,7 +8901,7 @@
         <v>36</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>34</v>
@@ -8887,32 +8919,32 @@
         <v>36</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>443</v>
+        <v>36</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>34</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>36</v>
@@ -8924,17 +8956,19 @@
         <v>36</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="O63" t="s" s="2">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>36</v>
@@ -8983,13 +9017,13 @@
         <v>36</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>36</v>
@@ -8998,24 +9032,24 @@
         <v>55</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>36</v>
+        <v>441</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9038,13 +9072,13 @@
         <v>36</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9071,13 +9105,13 @@
         <v>36</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>36</v>
+        <v>197</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>36</v>
+        <v>448</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>36</v>
+        <v>449</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>36</v>
@@ -9095,7 +9129,7 @@
         <v>36</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>34</v>
@@ -9113,25 +9147,25 @@
         <v>36</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>36</v>
+        <v>453</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9150,16 +9184,18 @@
         <v>36</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>197</v>
+        <v>454</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>36</v>
       </c>
@@ -9207,7 +9243,7 @@
         <v>36</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>34</v>
@@ -9231,15 +9267,15 @@
         <v>36</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>330</v>
+        <v>459</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9250,7 +9286,7 @@
         <v>34</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>36</v>
@@ -9262,18 +9298,16 @@
         <v>36</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>324</v>
+        <v>454</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N66" s="2"/>
-      <c r="O66" t="s" s="2">
-        <v>462</v>
-      </c>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>36</v>
       </c>
@@ -9321,13 +9355,13 @@
         <v>36</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>36</v>
@@ -9336,16 +9370,242 @@
         <v>55</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="AL66" t="s" s="2">
-        <v>329</v>
-      </c>
       <c r="AM66" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>330</v>
+        <v>464</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="P68" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>340</v>
       </c>
     </row>
   </sheetData>

--- a/output/StructureDefinition-careplan.xlsx
+++ b/output/StructureDefinition-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-18T14:23:59+02:00</t>
+    <t>2023-07-18T14:36:40+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
